--- a/outputs/c/_eggs_both.xlsx
+++ b/outputs/c/_eggs_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="165">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t>plastic</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
@@ -511,6 +505,15 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1330,7 @@
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:O1048576"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,22 +1368,22 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
@@ -1389,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="T1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U1" t="s">
         <v>2</v>
@@ -1407,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="Z1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1418,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>144</v>
@@ -1430,19 +1433,19 @@
         <v>1260</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1454,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1469,13 +1472,13 @@
         <v>264</v>
       </c>
       <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" t="s">
-        <v>54</v>
-      </c>
       <c r="Z2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1486,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>136</v>
@@ -1498,19 +1501,19 @@
         <v>1570</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1522,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1537,13 +1540,13 @@
         <v>1518</v>
       </c>
       <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" t="s">
-        <v>60</v>
-      </c>
       <c r="Z3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1554,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>134</v>
@@ -1566,22 +1569,22 @@
         <v>1072</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1593,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="S4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1608,13 +1611,13 @@
         <v>946</v>
       </c>
       <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" t="s">
-        <v>68</v>
-      </c>
       <c r="Z4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1625,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>103</v>
@@ -1637,22 +1640,22 @@
         <v>902</v>
       </c>
       <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
       <c r="M5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1664,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1679,13 +1682,13 @@
         <v>106</v>
       </c>
       <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
         <v>73</v>
       </c>
-      <c r="Y5" t="s">
-        <v>74</v>
-      </c>
       <c r="Z5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1696,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1708,19 +1711,19 @@
         <v>78</v>
       </c>
       <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
       <c r="M6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1732,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1747,13 +1750,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" t="s">
-        <v>27</v>
-      </c>
       <c r="Z6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1764,7 +1767,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>69</v>
@@ -1776,19 +1779,19 @@
         <v>328</v>
       </c>
       <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1800,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1815,13 +1818,13 @@
         <v>90</v>
       </c>
       <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" t="s">
-        <v>78</v>
-      </c>
       <c r="Z7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1832,7 +1835,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>98</v>
@@ -1844,19 +1847,19 @@
         <v>540</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1868,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1883,13 +1886,13 @@
         <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>191</v>
@@ -1912,22 +1915,22 @@
         <v>2378</v>
       </c>
       <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>36</v>
       </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
       <c r="M9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1939,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1954,13 +1957,13 @@
         <v>2204</v>
       </c>
       <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" t="s">
-        <v>98</v>
-      </c>
       <c r="Z9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1971,7 +1974,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>26</v>
@@ -1983,25 +1986,25 @@
         <v>324</v>
       </c>
       <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2013,7 +2016,7 @@
         <v>8</v>
       </c>
       <c r="S10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2028,13 +2031,13 @@
         <v>324</v>
       </c>
       <c r="X10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" t="s">
-        <v>39</v>
-      </c>
       <c r="Z10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2045,7 +2048,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>215</v>
@@ -2057,19 +2060,19 @@
         <v>2242</v>
       </c>
       <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2081,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="S11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2096,13 +2099,13 @@
         <v>2098</v>
       </c>
       <c r="X11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y11" t="s">
         <v>105</v>
       </c>
-      <c r="Y11" t="s">
-        <v>106</v>
-      </c>
       <c r="Z11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2113,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>380</v>
@@ -2125,19 +2128,19 @@
         <v>3550</v>
       </c>
       <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2149,7 +2152,7 @@
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2164,13 +2167,13 @@
         <v>262</v>
       </c>
       <c r="X12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -2181,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>385</v>
@@ -2193,19 +2196,19 @@
         <v>4910</v>
       </c>
       <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
         <v>45</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
       <c r="M13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2217,7 +2220,7 @@
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13">
         <v>2</v>
@@ -2232,13 +2235,13 @@
         <v>4910</v>
       </c>
       <c r="X13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" t="s">
         <v>44</v>
       </c>
-      <c r="Y13" t="s">
-        <v>45</v>
-      </c>
       <c r="Z13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2246,16 +2249,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -2270,7 +2273,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>342</v>
@@ -2282,19 +2285,19 @@
         <v>2156</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
         <v>48</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
       <c r="M15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2306,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="S15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2321,13 +2324,13 @@
         <v>1786</v>
       </c>
       <c r="X15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y15" t="s">
         <v>136</v>
       </c>
-      <c r="Y15" t="s">
-        <v>137</v>
-      </c>
       <c r="Z15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2338,7 +2341,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>492</v>
@@ -2350,19 +2353,19 @@
         <v>2444</v>
       </c>
       <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2374,7 +2377,7 @@
         <v>18</v>
       </c>
       <c r="S16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2389,13 +2392,13 @@
         <v>136</v>
       </c>
       <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
         <v>151</v>
       </c>
-      <c r="Y16" t="s">
-        <v>152</v>
-      </c>
       <c r="Z16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2403,25 +2406,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2432,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -2444,10 +2447,10 @@
         <v>264</v>
       </c>
       <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
         <v>53</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2458,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>39</v>
@@ -2470,10 +2473,10 @@
         <v>302</v>
       </c>
       <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
         <v>55</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2484,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>146</v>
@@ -2496,10 +2499,10 @@
         <v>1306</v>
       </c>
       <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
         <v>57</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2510,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>121</v>
@@ -2522,10 +2525,10 @@
         <v>1518</v>
       </c>
       <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
         <v>59</v>
-      </c>
-      <c r="H21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2536,7 +2539,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>129</v>
@@ -2548,10 +2551,10 @@
         <v>1550</v>
       </c>
       <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
         <v>61</v>
-      </c>
-      <c r="H22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2562,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>214</v>
@@ -2574,10 +2577,10 @@
         <v>2544</v>
       </c>
       <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
         <v>63</v>
-      </c>
-      <c r="H23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2588,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>223</v>
@@ -2600,10 +2603,10 @@
         <v>2624</v>
       </c>
       <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
         <v>65</v>
-      </c>
-      <c r="H24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>121</v>
@@ -2626,10 +2629,10 @@
         <v>946</v>
       </c>
       <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
         <v>67</v>
-      </c>
-      <c r="H25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2640,7 +2643,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>125</v>
@@ -2652,10 +2655,10 @@
         <v>1000</v>
       </c>
       <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
         <v>69</v>
-      </c>
-      <c r="H26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2666,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>138</v>
@@ -2678,10 +2681,10 @@
         <v>1088</v>
       </c>
       <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
         <v>71</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2692,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -2704,10 +2707,10 @@
         <v>106</v>
       </c>
       <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
         <v>73</v>
-      </c>
-      <c r="H28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2718,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>210</v>
@@ -2730,10 +2733,10 @@
         <v>1650</v>
       </c>
       <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
         <v>75</v>
-      </c>
-      <c r="H29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,7 +2747,7 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>14</v>
@@ -2756,10 +2759,10 @@
         <v>90</v>
       </c>
       <c r="G30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s">
         <v>77</v>
-      </c>
-      <c r="H30" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,7 +2773,7 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>29</v>
@@ -2782,10 +2785,10 @@
         <v>204</v>
       </c>
       <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s">
         <v>79</v>
-      </c>
-      <c r="H31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2796,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>39</v>
@@ -2808,10 +2811,10 @@
         <v>226</v>
       </c>
       <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
         <v>81</v>
-      </c>
-      <c r="H32" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2822,7 +2825,7 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>52</v>
@@ -2834,10 +2837,10 @@
         <v>252</v>
       </c>
       <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
         <v>83</v>
-      </c>
-      <c r="H33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2848,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>56</v>
@@ -2860,10 +2863,10 @@
         <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2874,7 +2877,7 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>61</v>
@@ -2886,10 +2889,10 @@
         <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2900,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -2912,10 +2915,10 @@
         <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2926,7 +2929,7 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>96</v>
@@ -2938,10 +2941,10 @@
         <v>484</v>
       </c>
       <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
         <v>88</v>
-      </c>
-      <c r="H37" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,7 +2955,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>113</v>
@@ -2964,10 +2967,10 @@
         <v>582</v>
       </c>
       <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
         <v>90</v>
-      </c>
-      <c r="H38" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2978,7 +2981,7 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>124</v>
@@ -2990,10 +2993,10 @@
         <v>646</v>
       </c>
       <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
         <v>92</v>
-      </c>
-      <c r="H39" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3004,7 +3007,7 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>189</v>
@@ -3016,10 +3019,10 @@
         <v>794</v>
       </c>
       <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" t="s">
         <v>94</v>
-      </c>
-      <c r="H40" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3030,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>332</v>
@@ -3042,10 +3045,10 @@
         <v>1592</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3056,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42">
         <v>172</v>
@@ -3068,10 +3071,10 @@
         <v>2204</v>
       </c>
       <c r="G42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" t="s">
         <v>97</v>
-      </c>
-      <c r="H42" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3082,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <v>175</v>
@@ -3094,10 +3097,10 @@
         <v>2234</v>
       </c>
       <c r="G43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" t="s">
         <v>99</v>
-      </c>
-      <c r="H43" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3108,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>189</v>
@@ -3120,10 +3123,10 @@
         <v>2368</v>
       </c>
       <c r="G44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
         <v>101</v>
-      </c>
-      <c r="H44" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3134,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>50</v>
@@ -3146,10 +3149,10 @@
         <v>488</v>
       </c>
       <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" t="s">
         <v>103</v>
-      </c>
-      <c r="H45" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3160,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>190</v>
@@ -3172,10 +3175,10 @@
         <v>2098</v>
       </c>
       <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" t="s">
         <v>105</v>
-      </c>
-      <c r="H46" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3186,7 +3189,7 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47">
         <v>199</v>
@@ -3198,10 +3201,10 @@
         <v>2166</v>
       </c>
       <c r="G47" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" t="s">
         <v>107</v>
-      </c>
-      <c r="H47" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3212,7 +3215,7 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>268</v>
@@ -3224,10 +3227,10 @@
         <v>2528</v>
       </c>
       <c r="G48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" t="s">
         <v>109</v>
-      </c>
-      <c r="H48" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3238,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49">
         <v>291</v>
@@ -3250,10 +3253,10 @@
         <v>2686</v>
       </c>
       <c r="G49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
         <v>111</v>
-      </c>
-      <c r="H49" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,7 +3267,7 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50">
         <v>314</v>
@@ -3276,10 +3279,10 @@
         <v>2962</v>
       </c>
       <c r="G50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" t="s">
         <v>113</v>
-      </c>
-      <c r="H50" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3290,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51">
         <v>321</v>
@@ -3302,10 +3305,10 @@
         <v>2986</v>
       </c>
       <c r="G51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" t="s">
         <v>115</v>
-      </c>
-      <c r="H51" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3316,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52">
         <v>329</v>
@@ -3328,10 +3331,10 @@
         <v>3062</v>
       </c>
       <c r="G52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" t="s">
         <v>117</v>
-      </c>
-      <c r="H52" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3342,7 +3345,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53">
         <v>342</v>
@@ -3354,10 +3357,10 @@
         <v>3330</v>
       </c>
       <c r="G53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53" t="s">
         <v>119</v>
-      </c>
-      <c r="H53" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3368,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54">
         <v>377</v>
@@ -3380,10 +3383,10 @@
         <v>3526</v>
       </c>
       <c r="G54" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" t="s">
         <v>121</v>
-      </c>
-      <c r="H54" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3394,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>23</v>
@@ -3406,10 +3409,10 @@
         <v>262</v>
       </c>
       <c r="G55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3420,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56">
         <v>266</v>
@@ -3432,10 +3435,10 @@
         <v>2994</v>
       </c>
       <c r="G56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" t="s">
         <v>124</v>
-      </c>
-      <c r="H56" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57">
         <v>363</v>
@@ -3458,10 +3461,10 @@
         <v>4610</v>
       </c>
       <c r="G57" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" t="s">
         <v>126</v>
-      </c>
-      <c r="H57" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3472,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58">
         <v>372</v>
@@ -3484,10 +3487,10 @@
         <v>4698</v>
       </c>
       <c r="G58" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" t="s">
         <v>128</v>
-      </c>
-      <c r="H58" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3498,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59">
         <v>380</v>
@@ -3510,10 +3513,10 @@
         <v>4854</v>
       </c>
       <c r="G59" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" t="s">
         <v>130</v>
-      </c>
-      <c r="H59" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3524,7 +3527,7 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60">
         <v>384</v>
@@ -3536,10 +3539,10 @@
         <v>4976</v>
       </c>
       <c r="G60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" t="s">
         <v>132</v>
-      </c>
-      <c r="H60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3550,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61">
         <v>520</v>
@@ -3562,10 +3565,10 @@
         <v>7112</v>
       </c>
       <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
         <v>134</v>
-      </c>
-      <c r="H61" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3576,7 +3579,7 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62">
         <v>266</v>
@@ -3588,10 +3591,10 @@
         <v>1786</v>
       </c>
       <c r="G62" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" t="s">
         <v>136</v>
-      </c>
-      <c r="H62" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3602,7 +3605,7 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63">
         <v>281</v>
@@ -3614,10 +3617,10 @@
         <v>1790</v>
       </c>
       <c r="G63" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63" t="s">
         <v>138</v>
-      </c>
-      <c r="H63" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3628,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64">
         <v>282</v>
@@ -3640,10 +3643,10 @@
         <v>1800</v>
       </c>
       <c r="G64" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" t="s">
         <v>140</v>
-      </c>
-      <c r="H64" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3654,7 +3657,7 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65">
         <v>323</v>
@@ -3666,10 +3669,10 @@
         <v>1970</v>
       </c>
       <c r="G65" t="s">
+        <v>141</v>
+      </c>
+      <c r="H65" t="s">
         <v>142</v>
-      </c>
-      <c r="H65" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3680,7 +3683,7 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>325</v>
@@ -3692,10 +3695,10 @@
         <v>1996</v>
       </c>
       <c r="G66" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" t="s">
         <v>144</v>
-      </c>
-      <c r="H66" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3706,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67">
         <v>328</v>
@@ -3718,10 +3721,10 @@
         <v>2074</v>
       </c>
       <c r="G67" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" t="s">
         <v>146</v>
-      </c>
-      <c r="H67" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3732,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68">
         <v>337</v>
@@ -3744,10 +3747,10 @@
         <v>2120</v>
       </c>
       <c r="G68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3758,7 +3761,7 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69">
         <v>409</v>
@@ -3770,10 +3773,10 @@
         <v>2542</v>
       </c>
       <c r="G69" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" t="s">
         <v>149</v>
-      </c>
-      <c r="H69" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3784,7 +3787,7 @@
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70">
         <v>10</v>
@@ -3796,10 +3799,10 @@
         <v>136</v>
       </c>
       <c r="G70" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" t="s">
         <v>151</v>
-      </c>
-      <c r="H70" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3810,7 +3813,7 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71">
         <v>486</v>
@@ -3822,10 +3825,10 @@
         <v>2418</v>
       </c>
       <c r="G71" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" t="s">
         <v>153</v>
-      </c>
-      <c r="H71" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
